--- a/inst/extdata/data-oswestry.xlsx
+++ b/inst/extdata/data-oswestry.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udemontreal-my.sharepoint.com/personal/maxime_bergevin_umontreal_ca/Documents/Documents/Academia/GitHub/Packages/qhs/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="384" documentId="11_F25DC773A252ABDACC1048FD41DD508E5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FC05D91-D9F6-497D-9097-392F8D02F733}"/>
+  <xr:revisionPtr revIDLastSave="389" documentId="11_F25DC773A252ABDACC1048FD41DD508E5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A2BC991-56EC-4339-BD31-4B78CCD4629D}"/>
   <bookViews>
-    <workbookView xWindow="15615" yWindow="7020" windowWidth="14055" windowHeight="9975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15960" yWindow="7365" windowWidth="14055" windowHeight="9975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="oswestry_eng" sheetId="1" r:id="rId1"/>
     <sheet name="oswestry_fr" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -871,8 +871,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1854,14 +1854,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87DAD592-0FD0-4189-97EB-15D998DBCD43}">
   <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="93.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="146.5703125" style="1" bestFit="1" customWidth="1"/>
